--- a/runs/run943/NotionalETEOutput943.xlsx
+++ b/runs/run943/NotionalETEOutput943.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX1_State_Update</t>
+    <t>Missile_ANGERMAX3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1_45.MISSILE_ANGERMAX1_45</t>
+    <t>MISSILE_ANGERMAX3_205.MISSILE_ANGERMAX3_205</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1</t>
+    <t>MISSILE_ANGERMAX3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1522.151957716171</v>
+        <v>-1555.829704470042</v>
       </c>
       <c r="J2">
-        <v>1922.196710424558</v>
+        <v>1928.00323255903</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1433.296629951233</v>
+        <v>-1400.514638168554</v>
       </c>
       <c r="J3">
-        <v>1857.010363169289</v>
+        <v>2008.780228086023</v>
       </c>
       <c r="K3">
-        <v>293.331980622137</v>
+        <v>308.8641292524335</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1378.686770265534</v>
+        <v>-1502.669330424336</v>
       </c>
       <c r="J4">
-        <v>1808.589794726117</v>
+        <v>1823.646410281632</v>
       </c>
       <c r="K4">
-        <v>574.3724769834386</v>
+        <v>566.8987911944247</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1368.743155850566</v>
+        <v>-1350.510446070511</v>
       </c>
       <c r="J5">
-        <v>1928.160506940973</v>
+        <v>1875.033396357847</v>
       </c>
       <c r="K5">
-        <v>907.3789584186511</v>
+        <v>887.5118281030299</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1412.864060493227</v>
+        <v>-1373.648191325699</v>
       </c>
       <c r="J6">
-        <v>1868.749366391806</v>
+        <v>1743.753849857651</v>
       </c>
       <c r="K6">
-        <v>1092.91593539782</v>
+        <v>1173.575414980039</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1403.424684928728</v>
+        <v>-1315.445997335402</v>
       </c>
       <c r="J7">
-        <v>1819.374072648407</v>
+        <v>1801.308333556807</v>
       </c>
       <c r="K7">
-        <v>1348.376291256973</v>
+        <v>1356.971980660289</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1359.798966863102</v>
+        <v>-1275.798046103828</v>
       </c>
       <c r="J8">
-        <v>1731.155983180043</v>
+        <v>1661.261155868482</v>
       </c>
       <c r="K8">
-        <v>1632.303214024806</v>
+        <v>1596.712944002993</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.82779955407004</v>
+        <v>-95.56713459043037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1237.353150911954</v>
+        <v>-1279.899182432571</v>
       </c>
       <c r="J9">
-        <v>1646.652438511552</v>
+        <v>1616.434168544859</v>
       </c>
       <c r="K9">
-        <v>1891.574275946768</v>
+        <v>1779.905499533</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>219.5256797439227</v>
+        <v>217.666802841001</v>
       </c>
       <c r="G10">
-        <v>-84.73234739055252</v>
+        <v>-83.91593449893769</v>
       </c>
       <c r="H10">
-        <v>853.3443878818621</v>
+        <v>895.5407950099399</v>
       </c>
       <c r="I10">
-        <v>-1225.233857421866</v>
+        <v>-1242.708955123022</v>
       </c>
       <c r="J10">
-        <v>1639.29105488451</v>
+        <v>1545.213449318907</v>
       </c>
       <c r="K10">
-        <v>1929.64725562605</v>
+        <v>2012.29616660032</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.8625116541096</v>
+        <v>162.0580894624804</v>
       </c>
       <c r="G11">
-        <v>-65.72888947090607</v>
+        <v>-66.38428198394203</v>
       </c>
       <c r="H11">
-        <v>1053.595435545776</v>
+        <v>1049.810082668899</v>
       </c>
       <c r="I11">
-        <v>-1217.870456250693</v>
+        <v>-1228.860695284023</v>
       </c>
       <c r="J11">
-        <v>1485.845739850803</v>
+        <v>1551.559578685449</v>
       </c>
       <c r="K11">
-        <v>2275.214395319766</v>
+        <v>2202.855940790037</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>144.8907141424431</v>
+        <v>142.4542298193297</v>
       </c>
       <c r="G12">
-        <v>-47.94319068626232</v>
+        <v>-51.22815452010992</v>
       </c>
       <c r="H12">
-        <v>1198.646512998635</v>
+        <v>1176.993902627687</v>
       </c>
       <c r="I12">
-        <v>-1126.844422096706</v>
+        <v>-1194.315625776651</v>
       </c>
       <c r="J12">
-        <v>1478.887119169288</v>
+        <v>1538.391060822242</v>
       </c>
       <c r="K12">
-        <v>2400.991433303997</v>
+        <v>2329.881874412721</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>126.7854892784584</v>
+        <v>124.7546084012807</v>
       </c>
       <c r="G13">
-        <v>-35.0266351824643</v>
+        <v>-34.41781970641456</v>
       </c>
       <c r="H13">
-        <v>1261.076408498138</v>
+        <v>1298.118244370772</v>
       </c>
       <c r="I13">
-        <v>-1159.50619497273</v>
+        <v>-1109.238440462013</v>
       </c>
       <c r="J13">
-        <v>1529.126577326152</v>
+        <v>1491.090138317746</v>
       </c>
       <c r="K13">
-        <v>2478.198734866719</v>
+        <v>2464.929497148134</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.8608206783395</v>
+        <v>113.3531822341939</v>
       </c>
       <c r="G14">
-        <v>-17.5167595352308</v>
+        <v>-18.21318534912983</v>
       </c>
       <c r="H14">
-        <v>1355.037391961735</v>
+        <v>1344.745046519099</v>
       </c>
       <c r="I14">
-        <v>-1117.364807474701</v>
+        <v>-1108.298161866369</v>
       </c>
       <c r="J14">
-        <v>1352.827346394544</v>
+        <v>1479.296060327038</v>
       </c>
       <c r="K14">
-        <v>2560.333041971357</v>
+        <v>2646.014028175532</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.4585613988476</v>
+        <v>103.3238452524204</v>
       </c>
       <c r="G15">
-        <v>-0.9670304526851085</v>
+        <v>-0.9544404818524009</v>
       </c>
       <c r="H15">
-        <v>1340.725737970242</v>
+        <v>1424.754870508483</v>
       </c>
       <c r="I15">
-        <v>-1080.753533756045</v>
+        <v>-1008.233257297004</v>
       </c>
       <c r="J15">
-        <v>1399.23171992272</v>
+        <v>1300.078413672564</v>
       </c>
       <c r="K15">
-        <v>2788.81599199564</v>
+        <v>2794.060789600817</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.16606557269819</v>
+        <v>95.08078764102792</v>
       </c>
       <c r="G16">
-        <v>15.25253833454451</v>
+        <v>15.21135833684971</v>
       </c>
       <c r="H16">
-        <v>1392.235356616593</v>
+        <v>1482.091392916504</v>
       </c>
       <c r="I16">
-        <v>-996.6311894668896</v>
+        <v>-1051.010468056749</v>
       </c>
       <c r="J16">
-        <v>1255.305243313813</v>
+        <v>1363.167070848905</v>
       </c>
       <c r="K16">
-        <v>2821.642573174381</v>
+        <v>2983.574346048521</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.34588734227941</v>
+        <v>86.12594947169772</v>
       </c>
       <c r="G17">
-        <v>32.17481156799874</v>
+        <v>31.0665797344786</v>
       </c>
       <c r="H17">
-        <v>1512.783943784857</v>
+        <v>1506.124152720233</v>
       </c>
       <c r="I17">
-        <v>-1009.462698450514</v>
+        <v>-963.4445359443015</v>
       </c>
       <c r="J17">
-        <v>1296.42753172949</v>
+        <v>1259.265813274804</v>
       </c>
       <c r="K17">
-        <v>2847.512489975362</v>
+        <v>2857.285103323895</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.81685446802027</v>
+        <v>81.05320008010247</v>
       </c>
       <c r="G18">
-        <v>46.87570003670164</v>
+        <v>49.24455692229534</v>
       </c>
       <c r="H18">
-        <v>1564.364896904488</v>
+        <v>1536.393478054863</v>
       </c>
       <c r="I18">
-        <v>-929.1563792312797</v>
+        <v>-960.6967396966588</v>
       </c>
       <c r="J18">
-        <v>1232.055619837924</v>
+        <v>1184.863451227449</v>
       </c>
       <c r="K18">
-        <v>3141.833942721789</v>
+        <v>3151.255836003682</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.93814674148737</v>
+        <v>76.02021266279293</v>
       </c>
       <c r="G19">
-        <v>65.71570180667203</v>
+        <v>64.40669397335432</v>
       </c>
       <c r="H19">
-        <v>1567.808164976514</v>
+        <v>1601.395409451065</v>
       </c>
       <c r="I19">
-        <v>-907.5228301747692</v>
+        <v>-915.9600968806031</v>
       </c>
       <c r="J19">
-        <v>1182.392497973694</v>
+        <v>1144.010814677116</v>
       </c>
       <c r="K19">
-        <v>3058.900201399543</v>
+        <v>2983.119340897852</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.64062923151781</v>
+        <v>72.15660267170077</v>
       </c>
       <c r="G20">
-        <v>82.9107336160658</v>
+        <v>80.77779212383408</v>
       </c>
       <c r="H20">
-        <v>1517.187386429819</v>
+        <v>1544.977053357641</v>
       </c>
       <c r="I20">
-        <v>-835.9796393221516</v>
+        <v>-861.2192844040997</v>
       </c>
       <c r="J20">
-        <v>1106.800596514947</v>
+        <v>1144.452032854825</v>
       </c>
       <c r="K20">
-        <v>3290.637580874449</v>
+        <v>3117.227876087978</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.70122722580615</v>
+        <v>73.9065523887793</v>
       </c>
       <c r="G21">
-        <v>101.4492951334493</v>
+        <v>100.2859702077231</v>
       </c>
       <c r="H21">
-        <v>1606.597859929042</v>
+        <v>1641.657051546199</v>
       </c>
       <c r="I21">
-        <v>-808.4606904078094</v>
+        <v>-786.0521955620364</v>
       </c>
       <c r="J21">
-        <v>1025.262266433207</v>
+        <v>1070.378335394466</v>
       </c>
       <c r="K21">
-        <v>3216.968285653226</v>
+        <v>3216.040972786005</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.55485294712554</v>
+        <v>70.34508670359993</v>
       </c>
       <c r="G22">
-        <v>120.1006165932937</v>
+        <v>115.539017888417</v>
       </c>
       <c r="H22">
-        <v>1548.272565434802</v>
+        <v>1596.293985756832</v>
       </c>
       <c r="I22">
-        <v>-721.5915587419145</v>
+        <v>-754.756432478375</v>
       </c>
       <c r="J22">
-        <v>989.3964864614542</v>
+        <v>1042.303394230852</v>
       </c>
       <c r="K22">
-        <v>3213.958803590006</v>
+        <v>3167.421726329015</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.86713971831944</v>
+        <v>68.9869321259564</v>
       </c>
       <c r="G23">
-        <v>135.1512035186246</v>
+        <v>128.4423866779564</v>
       </c>
       <c r="H23">
-        <v>1610.857826942367</v>
+        <v>1580.872085320671</v>
       </c>
       <c r="I23">
-        <v>-713.964509700652</v>
+        <v>-709.9366285125822</v>
       </c>
       <c r="J23">
-        <v>1009.14584627414</v>
+        <v>1005.91603187905</v>
       </c>
       <c r="K23">
-        <v>3116.884459866632</v>
+        <v>3088.327089702796</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.37086460970688</v>
+        <v>61.24163105693036</v>
       </c>
       <c r="G24">
-        <v>147.033809212413</v>
+        <v>144.2713884226417</v>
       </c>
       <c r="H24">
-        <v>1683.619508870321</v>
+        <v>1665.683037058614</v>
       </c>
       <c r="I24">
-        <v>-673.113550023264</v>
+        <v>-664.901022725034</v>
       </c>
       <c r="J24">
-        <v>946.4067701495018</v>
+        <v>922.3225007140038</v>
       </c>
       <c r="K24">
-        <v>3048.392006999234</v>
+        <v>3176.613996798118</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.82050886276164</v>
+        <v>61.5647725028408</v>
       </c>
       <c r="G25">
-        <v>162.4946421653369</v>
+        <v>171.0973175273333</v>
       </c>
       <c r="H25">
-        <v>1728.017175292875</v>
+        <v>1705.527375020164</v>
       </c>
       <c r="I25">
-        <v>-625.6012917872637</v>
+        <v>-596.792090241722</v>
       </c>
       <c r="J25">
-        <v>855.3328650256881</v>
+        <v>876.3235384416964</v>
       </c>
       <c r="K25">
-        <v>3291.669411022397</v>
+        <v>3286.903478873019</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.07144804818979</v>
+        <v>59.12383495037846</v>
       </c>
       <c r="G26">
-        <v>172.2019609655251</v>
+        <v>172.5835838038776</v>
       </c>
       <c r="H26">
-        <v>1613.354928019293</v>
+        <v>1621.651315619375</v>
       </c>
       <c r="I26">
-        <v>-545.3385496734177</v>
+        <v>-560.2563921938</v>
       </c>
       <c r="J26">
-        <v>822.277641106434</v>
+        <v>823.120348512419</v>
       </c>
       <c r="K26">
-        <v>3129.423906854633</v>
+        <v>3106.917268188875</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.64201764698687</v>
+        <v>59.15296949099353</v>
       </c>
       <c r="G27">
-        <v>196.5317402376463</v>
+        <v>187.4491898394647</v>
       </c>
       <c r="H27">
-        <v>1628.265979473308</v>
+        <v>1661.061065970275</v>
       </c>
       <c r="I27">
-        <v>-479.0331248649033</v>
+        <v>-481.1376527580215</v>
       </c>
       <c r="J27">
-        <v>808.7586814769768</v>
+        <v>774.7029510660811</v>
       </c>
       <c r="K27">
-        <v>2909.817648185083</v>
+        <v>2928.207143643328</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.97687634572294</v>
+        <v>54.71243095574449</v>
       </c>
       <c r="G28">
-        <v>217.18493342183</v>
+        <v>214.7834263165346</v>
       </c>
       <c r="H28">
-        <v>1798.58321460398</v>
+        <v>1803.704158325167</v>
       </c>
       <c r="I28">
-        <v>-420.4122984348205</v>
+        <v>-435.7010042770025</v>
       </c>
       <c r="J28">
-        <v>716.494503912309</v>
+        <v>769.7204707083521</v>
       </c>
       <c r="K28">
-        <v>2886.285180388888</v>
+        <v>2874.96844537384</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.43384307991093</v>
+        <v>57.24451165595824</v>
       </c>
       <c r="G29">
-        <v>240.3540780928056</v>
+        <v>227.1149461209817</v>
       </c>
       <c r="H29">
-        <v>1782.810316159775</v>
+        <v>1691.933766012825</v>
       </c>
       <c r="I29">
-        <v>-370.3412399922506</v>
+        <v>-397.0551261456261</v>
       </c>
       <c r="J29">
-        <v>706.8489857062913</v>
+        <v>678.9235538133593</v>
       </c>
       <c r="K29">
-        <v>2785.425827449752</v>
+        <v>2902.971837708305</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.41362955390046</v>
+        <v>51.33649039260736</v>
       </c>
       <c r="G30">
-        <v>248.5618301930445</v>
+        <v>251.4249645840759</v>
       </c>
       <c r="H30">
-        <v>1690.098856236638</v>
+        <v>1790.839277065243</v>
       </c>
       <c r="I30">
-        <v>-309.8865468006764</v>
+        <v>-310.5522183260391</v>
       </c>
       <c r="J30">
-        <v>606.356578714807</v>
+        <v>626.4567130812941</v>
       </c>
       <c r="K30">
-        <v>2702.906336144342</v>
+        <v>2862.522077834406</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.47686009930747</v>
+        <v>54.15614069444538</v>
       </c>
       <c r="G31">
-        <v>263.0055247077546</v>
+        <v>273.7897107138925</v>
       </c>
       <c r="H31">
-        <v>1812.679075622747</v>
+        <v>1781.194295300508</v>
       </c>
       <c r="I31">
-        <v>-272.524823228544</v>
+        <v>-265.0859609001258</v>
       </c>
       <c r="J31">
-        <v>607.6922577110455</v>
+        <v>596.249297395235</v>
       </c>
       <c r="K31">
-        <v>2599.42347957763</v>
+        <v>2740.771886578222</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.63041917973747</v>
+        <v>51.09783788551951</v>
       </c>
       <c r="G32">
-        <v>271.6606574822399</v>
+        <v>279.8391057690135</v>
       </c>
       <c r="H32">
-        <v>1799.386566763279</v>
+        <v>1696.361824336453</v>
       </c>
       <c r="I32">
-        <v>-211.9433737349765</v>
+        <v>-207.8801835211891</v>
       </c>
       <c r="J32">
-        <v>530.8365643524253</v>
+        <v>538.2527587960836</v>
       </c>
       <c r="K32">
-        <v>2611.676257312951</v>
+        <v>2571.422641323814</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.36736404907085</v>
+        <v>50.76754230452224</v>
       </c>
       <c r="G33">
-        <v>301.1957488251335</v>
+        <v>281.6398365977208</v>
       </c>
       <c r="H33">
-        <v>1741.471070853105</v>
+        <v>1768.578240186659</v>
       </c>
       <c r="I33">
-        <v>-140.4598090997376</v>
+        <v>-148.6492390313819</v>
       </c>
       <c r="J33">
-        <v>478.5281218937254</v>
+        <v>497.1837355254384</v>
       </c>
       <c r="K33">
-        <v>2477.105368663024</v>
+        <v>2348.897092954791</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.00379471041722</v>
+        <v>47.20362070738692</v>
       </c>
       <c r="G34">
-        <v>302.8617616294677</v>
+        <v>322.6461564759874</v>
       </c>
       <c r="H34">
-        <v>1893.951987574378</v>
+        <v>1718.202333359663</v>
       </c>
       <c r="I34">
-        <v>-80.8563993622611</v>
+        <v>-84.39262805499831</v>
       </c>
       <c r="J34">
-        <v>429.2814340608605</v>
+        <v>442.9245944861574</v>
       </c>
       <c r="K34">
-        <v>2213.347659429402</v>
+        <v>2267.87742420903</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.26651045260233</v>
+        <v>50.25702070225451</v>
       </c>
       <c r="G35">
-        <v>335.3130276909419</v>
+        <v>319.4799562415874</v>
       </c>
       <c r="H35">
-        <v>1809.15890305297</v>
+        <v>1781.400880899522</v>
       </c>
       <c r="I35">
-        <v>-19.63015143626379</v>
+        <v>-18.85860054632705</v>
       </c>
       <c r="J35">
-        <v>392.7668686291849</v>
+        <v>410.7468123302709</v>
       </c>
       <c r="K35">
-        <v>1952.83912590132</v>
+        <v>1955.890169318317</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.28678386412543</v>
+        <v>45.27336735183911</v>
       </c>
       <c r="G36">
-        <v>341.3455208268138</v>
+        <v>361.3327938803793</v>
       </c>
       <c r="H36">
-        <v>1900.822329531403</v>
+        <v>1810.27784440897</v>
       </c>
       <c r="I36">
-        <v>49.04937774081579</v>
+        <v>45.37853318892706</v>
       </c>
       <c r="J36">
-        <v>349.5801956708572</v>
+        <v>356.1400946623348</v>
       </c>
       <c r="K36">
-        <v>1780.042345147134</v>
+        <v>1784.83413394291</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.72054688915897</v>
+        <v>48.23156636001371</v>
       </c>
       <c r="G37">
-        <v>347.7356617551798</v>
+        <v>364.6923072823015</v>
       </c>
       <c r="H37">
-        <v>1898.430055203202</v>
+        <v>1847.11929224713</v>
       </c>
       <c r="I37">
-        <v>120.4424263022377</v>
+        <v>116.1462658037294</v>
       </c>
       <c r="J37">
-        <v>292.6135232426884</v>
+        <v>308.1021558930016</v>
       </c>
       <c r="K37">
-        <v>1575.803291977995</v>
+        <v>1692.872726618008</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.54818198919207</v>
+        <v>45.8714312921417</v>
       </c>
       <c r="G38">
-        <v>377.1646323873868</v>
+        <v>393.9184729957885</v>
       </c>
       <c r="H38">
-        <v>1940.057117382386</v>
+        <v>1914.130767719409</v>
       </c>
       <c r="I38">
-        <v>175.4589175619616</v>
+        <v>188.5822900020099</v>
       </c>
       <c r="J38">
-        <v>254.0249426420945</v>
+        <v>243.4743824310389</v>
       </c>
       <c r="K38">
-        <v>1323.578062889036</v>
+        <v>1394.822862231614</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.35765366015254</v>
+        <v>43.25119606654953</v>
       </c>
       <c r="G39">
-        <v>395.9551703680446</v>
+        <v>378.5810846430517</v>
       </c>
       <c r="H39">
-        <v>1780.351967808851</v>
+        <v>1901.482279973995</v>
       </c>
       <c r="I39">
-        <v>267.708362171227</v>
+        <v>257.3627136819628</v>
       </c>
       <c r="J39">
-        <v>196.159520903916</v>
+        <v>206.2619751391462</v>
       </c>
       <c r="K39">
-        <v>1179.536551194264</v>
+        <v>1097.323622400733</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.15640968815966</v>
+        <v>42.37026993299268</v>
       </c>
       <c r="G40">
-        <v>408.7656542581612</v>
+        <v>410.4190476140562</v>
       </c>
       <c r="H40">
-        <v>1938.568228221451</v>
+        <v>1964.553945266227</v>
       </c>
       <c r="I40">
-        <v>336.4182352688493</v>
+        <v>330.7631344043144</v>
       </c>
       <c r="J40">
-        <v>155.3839776825893</v>
+        <v>157.4372207552917</v>
       </c>
       <c r="K40">
-        <v>864.0443931805904</v>
+        <v>898.8747493000396</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.61791888629595</v>
+        <v>41.72550162300055</v>
       </c>
       <c r="G41">
-        <v>418.8877721528159</v>
+        <v>420.5100176063755</v>
       </c>
       <c r="H41">
-        <v>1943.594045705939</v>
+        <v>1816.73777497428</v>
       </c>
       <c r="I41">
-        <v>420.7288654960843</v>
+        <v>404.0749148177275</v>
       </c>
       <c r="J41">
-        <v>102.2556053363389</v>
+        <v>98.04168854491297</v>
       </c>
       <c r="K41">
-        <v>612.1444279610796</v>
+        <v>614.1334252502012</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.0778912073879</v>
+        <v>43.53946962358884</v>
       </c>
       <c r="G42">
-        <v>460.1260418918601</v>
+        <v>446.2033363539423</v>
       </c>
       <c r="H42">
-        <v>1965.735844567361</v>
+        <v>1861.780541789968</v>
       </c>
       <c r="I42">
-        <v>477.8572243356134</v>
+        <v>500.1584534100368</v>
       </c>
       <c r="J42">
-        <v>53.09383075216493</v>
+        <v>53.42359797800756</v>
       </c>
       <c r="K42">
-        <v>341.7002842044757</v>
+        <v>339.7584695912159</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.82053750212222</v>
+        <v>41.64381735354487</v>
       </c>
       <c r="G43">
-        <v>439.5517070568256</v>
+        <v>475.2678802646233</v>
       </c>
       <c r="H43">
-        <v>1817.2496136672</v>
+        <v>1854.822866842242</v>
       </c>
       <c r="I43">
-        <v>561.9638189899096</v>
+        <v>560.0238662262834</v>
       </c>
       <c r="J43">
-        <v>5.025199460280759</v>
+        <v>5.326797668882883</v>
       </c>
       <c r="K43">
-        <v>32.11516254983236</v>
+        <v>33.43955893925174</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.02818660855844</v>
+        <v>40.12468214408382</v>
       </c>
       <c r="G44">
-        <v>459.8612987326962</v>
+        <v>490.5300390713869</v>
       </c>
       <c r="H44">
-        <v>1855.127475235679</v>
+        <v>1891.144423085799</v>
       </c>
       <c r="I44">
-        <v>613.3481910685871</v>
+        <v>655.5854077610618</v>
       </c>
       <c r="J44">
-        <v>-41.80484571440284</v>
+        <v>-44.50400890263674</v>
       </c>
       <c r="K44">
-        <v>-289.9985161870867</v>
+        <v>-277.2069214128571</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.58481523814783</v>
+        <v>41.79428207339456</v>
       </c>
       <c r="G45">
-        <v>512.9298194381992</v>
+        <v>511.1116913159651</v>
       </c>
       <c r="H45">
-        <v>2004.175083027401</v>
+        <v>1940.947957385863</v>
       </c>
       <c r="I45">
-        <v>715.6190738911224</v>
+        <v>730.1019003720404</v>
       </c>
       <c r="J45">
-        <v>-87.85928865320696</v>
+        <v>-95.31056711067562</v>
       </c>
       <c r="K45">
-        <v>-592.9273298472186</v>
+        <v>-641.8858830138555</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.0382439997742</v>
+        <v>42.28207152917445</v>
       </c>
       <c r="G46">
-        <v>533.6396564143533</v>
+        <v>518.2211548327222</v>
       </c>
       <c r="H46">
-        <v>1869.131606070028</v>
+        <v>1835.013037290458</v>
       </c>
       <c r="I46">
-        <v>831.0948688651531</v>
+        <v>771.7317369397866</v>
       </c>
       <c r="J46">
-        <v>-142.0660220000942</v>
+        <v>-143.6654640641401</v>
       </c>
       <c r="K46">
-        <v>-950.5452297893012</v>
+        <v>-978.6244770874544</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.62966526458857</v>
+        <v>40.23149851129547</v>
       </c>
       <c r="G47">
-        <v>504.0156161230366</v>
+        <v>506.685727957762</v>
       </c>
       <c r="H47">
-        <v>1875.285544030239</v>
+        <v>1909.327232033641</v>
       </c>
       <c r="I47">
-        <v>915.5712822326312</v>
+        <v>869.3583619761946</v>
       </c>
       <c r="J47">
-        <v>-188.529287252954</v>
+        <v>-198.2615984703113</v>
       </c>
       <c r="K47">
-        <v>-1279.574512427997</v>
+        <v>-1377.885035101116</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.31840399858965</v>
+        <v>39.1976227730706</v>
       </c>
       <c r="G48">
-        <v>542.8257356327289</v>
+        <v>543.1855574271237</v>
       </c>
       <c r="H48">
-        <v>1968.954307205423</v>
+        <v>1894.828905882949</v>
       </c>
       <c r="I48">
-        <v>1023.671477366548</v>
+        <v>952.2420515972271</v>
       </c>
       <c r="J48">
-        <v>-232.5632188866993</v>
+        <v>-241.4764516281118</v>
       </c>
       <c r="K48">
-        <v>-1656.285889238371</v>
+        <v>-1763.374913519152</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.73287092173176</v>
+        <v>39.81043034559414</v>
       </c>
       <c r="G49">
-        <v>547.2241758202288</v>
+        <v>542.4661452283268</v>
       </c>
       <c r="H49">
-        <v>2040.855092304933</v>
+        <v>2010.73515533852</v>
       </c>
       <c r="I49">
-        <v>1112.855341705382</v>
+        <v>1098.60063319037</v>
       </c>
       <c r="J49">
-        <v>-285.1766087638543</v>
+        <v>-295.8410677420732</v>
       </c>
       <c r="K49">
-        <v>-2160.80824171465</v>
+        <v>-2026.666331449609</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.89946534766892</v>
+        <v>38.57615647926435</v>
       </c>
       <c r="G50">
-        <v>551.3370802075061</v>
+        <v>555.903351617376</v>
       </c>
       <c r="H50">
-        <v>1975.471718196905</v>
+        <v>1859.822222053157</v>
       </c>
       <c r="I50">
-        <v>1196.755236769944</v>
+        <v>1111.885101633626</v>
       </c>
       <c r="J50">
-        <v>-326.2827960143414</v>
+        <v>-324.2033443029844</v>
       </c>
       <c r="K50">
-        <v>-2500.806108029848</v>
+        <v>-2426.947613906127</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.87827507002158</v>
+        <v>36.23659000278441</v>
       </c>
       <c r="G51">
-        <v>581.5014868138874</v>
+        <v>601.0417373369678</v>
       </c>
       <c r="H51">
-        <v>2024.019187959966</v>
+        <v>1866.795475837423</v>
       </c>
       <c r="I51">
-        <v>1256.688516281926</v>
+        <v>1268.316407329435</v>
       </c>
       <c r="J51">
-        <v>-379.0700700966408</v>
+        <v>-384.9360441723513</v>
       </c>
       <c r="K51">
-        <v>-2874.363839007211</v>
+        <v>-2802.702747183298</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.12526788450894</v>
+        <v>37.1312033882444</v>
       </c>
       <c r="G52">
-        <v>638.7743957860635</v>
+        <v>579.9804012939807</v>
       </c>
       <c r="H52">
-        <v>1997.726625931661</v>
+        <v>2044.811688876417</v>
       </c>
       <c r="I52">
-        <v>1294.554655430713</v>
+        <v>1346.666860583748</v>
       </c>
       <c r="J52">
-        <v>-420.1049970610855</v>
+        <v>-434.3651739921198</v>
       </c>
       <c r="K52">
-        <v>-3399.202099915355</v>
+        <v>-3293.711882517746</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.70045761391027</v>
+        <v>36.59402913496803</v>
       </c>
       <c r="G53">
-        <v>618.0922868012993</v>
+        <v>602.6565947481364</v>
       </c>
       <c r="H53">
-        <v>1987.754290406976</v>
+        <v>1907.866286273731</v>
       </c>
       <c r="I53">
-        <v>1448.588197679197</v>
+        <v>1469.697770559151</v>
       </c>
       <c r="J53">
-        <v>-467.696616879101</v>
+        <v>-470.4020451824952</v>
       </c>
       <c r="K53">
-        <v>-3810.488511730001</v>
+        <v>-3979.177414394464</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>34.86255498156842</v>
+        <v>36.89683854863707</v>
       </c>
       <c r="G54">
-        <v>612.3900142596614</v>
+        <v>635.0736576810137</v>
       </c>
       <c r="H54">
-        <v>2005.636772715028</v>
+        <v>1953.409819450593</v>
       </c>
       <c r="I54">
-        <v>1541.742816602434</v>
+        <v>1551.143239028525</v>
       </c>
       <c r="J54">
-        <v>-534.0633327681096</v>
+        <v>-555.0828491042337</v>
       </c>
       <c r="K54">
-        <v>-4187.524537825957</v>
+        <v>-4334.395869865282</v>
       </c>
     </row>
   </sheetData>
